--- a/po_analysis_by_asin/B0BTJYYTGM_po_data.xlsx
+++ b/po_analysis_by_asin/B0BTJYYTGM_po_data.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,31 +452,31 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45292</v>
+        <v>44976.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45299</v>
+        <v>44983.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>15</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45355</v>
+        <v>44997.99999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45369</v>
+        <v>45011.99999999999</v>
       </c>
       <c r="B5" t="n">
         <v>5</v>
@@ -484,129 +484,337 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45383</v>
+        <v>45018.99999999999</v>
       </c>
       <c r="B6" t="n">
-        <v>30</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45390</v>
+        <v>45039.99999999999</v>
       </c>
       <c r="B7" t="n">
-        <v>40</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45397</v>
+        <v>45060.99999999999</v>
       </c>
       <c r="B8" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45404</v>
+        <v>45095.99999999999</v>
       </c>
       <c r="B9" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45411</v>
+        <v>45102.99999999999</v>
       </c>
       <c r="B10" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45418</v>
+        <v>45109.99999999999</v>
       </c>
       <c r="B11" t="n">
-        <v>130</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45425</v>
+        <v>45116.99999999999</v>
       </c>
       <c r="B12" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45439</v>
+        <v>45123.99999999999</v>
       </c>
       <c r="B13" t="n">
-        <v>70</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45446</v>
+        <v>45130.99999999999</v>
       </c>
       <c r="B14" t="n">
-        <v>250</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45453</v>
+        <v>45151.99999999999</v>
       </c>
       <c r="B15" t="n">
-        <v>210</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45460</v>
+        <v>45165.99999999999</v>
       </c>
       <c r="B16" t="n">
-        <v>70</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45523</v>
+        <v>45172.99999999999</v>
       </c>
       <c r="B17" t="n">
-        <v>20</v>
+        <v>260</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45544</v>
+        <v>45179.99999999999</v>
       </c>
       <c r="B18" t="n">
-        <v>600</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45551</v>
+        <v>45186.99999999999</v>
       </c>
       <c r="B19" t="n">
-        <v>390</v>
+        <v>220</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45572</v>
+        <v>45193.99999999999</v>
       </c>
       <c r="B20" t="n">
-        <v>10</v>
+        <v>190</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45628</v>
+        <v>45200.99999999999</v>
       </c>
       <c r="B21" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45207.99999999999</v>
+      </c>
+      <c r="B22" t="n">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45214.99999999999</v>
+      </c>
+      <c r="B23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45249.99999999999</v>
+      </c>
+      <c r="B24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45256.99999999999</v>
+      </c>
+      <c r="B25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45270.99999999999</v>
+      </c>
+      <c r="B26" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45277.99999999999</v>
+      </c>
+      <c r="B27" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45298.99999999999</v>
+      </c>
+      <c r="B28" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>45305.99999999999</v>
+      </c>
+      <c r="B29" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45361.99999999999</v>
+      </c>
+      <c r="B30" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45375.99999999999</v>
+      </c>
+      <c r="B31" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>45389.99999999999</v>
+      </c>
+      <c r="B32" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>45396.99999999999</v>
+      </c>
+      <c r="B33" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>45403.99999999999</v>
+      </c>
+      <c r="B34" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>45410.99999999999</v>
+      </c>
+      <c r="B35" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>45417.99999999999</v>
+      </c>
+      <c r="B36" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>45424.99999999999</v>
+      </c>
+      <c r="B37" t="n">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>45431.99999999999</v>
+      </c>
+      <c r="B38" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>45445.99999999999</v>
+      </c>
+      <c r="B39" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>45452.99999999999</v>
+      </c>
+      <c r="B40" t="n">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>45459.99999999999</v>
+      </c>
+      <c r="B41" t="n">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>45466.99999999999</v>
+      </c>
+      <c r="B42" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>45529.99999999999</v>
+      </c>
+      <c r="B43" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>45550.99999999999</v>
+      </c>
+      <c r="B44" t="n">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>45557.99999999999</v>
+      </c>
+      <c r="B45" t="n">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>45578.99999999999</v>
+      </c>
+      <c r="B46" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45634.99999999999</v>
+      </c>
+      <c r="B47" t="n">
         <v>110</v>
       </c>
     </row>
@@ -621,7 +829,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -643,73 +851,161 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45292</v>
+        <v>44985.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>30</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45352</v>
+        <v>45016.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>55</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45383</v>
+        <v>45046.99999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>160</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45413</v>
+        <v>45077.99999999999</v>
       </c>
       <c r="B5" t="n">
-        <v>220</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45444</v>
+        <v>45107.99999999999</v>
       </c>
       <c r="B6" t="n">
-        <v>530</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45505</v>
+        <v>45138.99999999999</v>
       </c>
       <c r="B7" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45536</v>
+        <v>45169.99999999999</v>
       </c>
       <c r="B8" t="n">
-        <v>990</v>
+        <v>290</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45566</v>
+        <v>45199.99999999999</v>
       </c>
       <c r="B9" t="n">
-        <v>10</v>
+        <v>505</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45627</v>
+        <v>45230.99999999999</v>
       </c>
       <c r="B10" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45260.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45291.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45322.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45382.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45412.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45443.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45473.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45535.99999999999</v>
+      </c>
+      <c r="B18" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45565.99999999999</v>
+      </c>
+      <c r="B19" t="n">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45596.99999999999</v>
+      </c>
+      <c r="B20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45657.99999999999</v>
+      </c>
+      <c r="B21" t="n">
         <v>110</v>
       </c>
     </row>

--- a/po_analysis_by_asin/B0BTJYYTGM_po_data.xlsx
+++ b/po_analysis_by_asin/B0BTJYYTGM_po_data.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Weekly Quantity" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Trend" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PO Forecast" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -446,7 +447,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Weekly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -845,7 +846,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Monthly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -1007,6 +1008,803 @@
       </c>
       <c r="B21" t="n">
         <v>110</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D55"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ds</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PO_Forecast</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_lower</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_upper</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>44976.99999999999</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-143.685820292379</v>
+      </c>
+      <c r="D2" t="n">
+        <v>121.1626061997484</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>44983.99999999999</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-137.9306810165527</v>
+      </c>
+      <c r="D3" t="n">
+        <v>130.5241127184159</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>44997.99999999999</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-136.3489969243094</v>
+      </c>
+      <c r="D4" t="n">
+        <v>133.3306754166084</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45011.99999999999</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-136.8218028907774</v>
+      </c>
+      <c r="D5" t="n">
+        <v>135.6977067496454</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45018.99999999999</v>
+      </c>
+      <c r="B6" t="n">
+        <v>2</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-128.917116201413</v>
+      </c>
+      <c r="D6" t="n">
+        <v>126.9949201635883</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45039.99999999999</v>
+      </c>
+      <c r="B7" t="n">
+        <v>8</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-131.3881636974626</v>
+      </c>
+      <c r="D7" t="n">
+        <v>136.443127352557</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45060.99999999999</v>
+      </c>
+      <c r="B8" t="n">
+        <v>13</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-121.0279046608314</v>
+      </c>
+      <c r="D8" t="n">
+        <v>157.1167921911986</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45095.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>23</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-106.077179365514</v>
+      </c>
+      <c r="D9" t="n">
+        <v>161.8175301085614</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45102.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>25</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-109.5609296042904</v>
+      </c>
+      <c r="D10" t="n">
+        <v>161.5315769915752</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45109.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>26</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-113.820410159511</v>
+      </c>
+      <c r="D11" t="n">
+        <v>156.1301690654763</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45116.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>28</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-98.79582410551234</v>
+      </c>
+      <c r="D12" t="n">
+        <v>162.1062760597801</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45123.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>30</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-104.9496178479217</v>
+      </c>
+      <c r="D13" t="n">
+        <v>163.3519774908711</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45130.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>32</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-101.7434362267775</v>
+      </c>
+      <c r="D14" t="n">
+        <v>173.5535083211913</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45151.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>38</v>
+      </c>
+      <c r="C15" t="n">
+        <v>-101.4850385788039</v>
+      </c>
+      <c r="D15" t="n">
+        <v>166.9881703798819</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45165.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>42</v>
+      </c>
+      <c r="C16" t="n">
+        <v>-85.89475513126565</v>
+      </c>
+      <c r="D16" t="n">
+        <v>172.0574031308441</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45172.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>44</v>
+      </c>
+      <c r="C17" t="n">
+        <v>-91.57492263539848</v>
+      </c>
+      <c r="D17" t="n">
+        <v>175.7849583992979</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45179.99999999999</v>
+      </c>
+      <c r="B18" t="n">
+        <v>45</v>
+      </c>
+      <c r="C18" t="n">
+        <v>-87.52453373741538</v>
+      </c>
+      <c r="D18" t="n">
+        <v>180.0522339875342</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45186.99999999999</v>
+      </c>
+      <c r="B19" t="n">
+        <v>47</v>
+      </c>
+      <c r="C19" t="n">
+        <v>-91.58991660830836</v>
+      </c>
+      <c r="D19" t="n">
+        <v>185.3983346923988</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45193.99999999999</v>
+      </c>
+      <c r="B20" t="n">
+        <v>49</v>
+      </c>
+      <c r="C20" t="n">
+        <v>-80.40862015471629</v>
+      </c>
+      <c r="D20" t="n">
+        <v>182.1141546436436</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45200.99999999999</v>
+      </c>
+      <c r="B21" t="n">
+        <v>51</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-87.91822988138627</v>
+      </c>
+      <c r="D21" t="n">
+        <v>190.0231849344646</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45207.99999999999</v>
+      </c>
+      <c r="B22" t="n">
+        <v>53</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-81.78078797296868</v>
+      </c>
+      <c r="D22" t="n">
+        <v>184.8073213347397</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45214.99999999999</v>
+      </c>
+      <c r="B23" t="n">
+        <v>55</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-74.88615376495331</v>
+      </c>
+      <c r="D23" t="n">
+        <v>194.7727637248639</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45249.99999999999</v>
+      </c>
+      <c r="B24" t="n">
+        <v>64</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-69.59977243359963</v>
+      </c>
+      <c r="D24" t="n">
+        <v>202.7584907389961</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45256.99999999999</v>
+      </c>
+      <c r="B25" t="n">
+        <v>66</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-76.53681933476746</v>
+      </c>
+      <c r="D25" t="n">
+        <v>202.6720561163611</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45270.99999999999</v>
+      </c>
+      <c r="B26" t="n">
+        <v>70</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-67.00529033496838</v>
+      </c>
+      <c r="D26" t="n">
+        <v>200.2556380002407</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45277.99999999999</v>
+      </c>
+      <c r="B27" t="n">
+        <v>72</v>
+      </c>
+      <c r="C27" t="n">
+        <v>-54.52487699742729</v>
+      </c>
+      <c r="D27" t="n">
+        <v>201.385813305074</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45298.99999999999</v>
+      </c>
+      <c r="B28" t="n">
+        <v>78</v>
+      </c>
+      <c r="C28" t="n">
+        <v>-52.29247618354722</v>
+      </c>
+      <c r="D28" t="n">
+        <v>215.9429448965279</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>45305.99999999999</v>
+      </c>
+      <c r="B29" t="n">
+        <v>79</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-56.28659533886998</v>
+      </c>
+      <c r="D29" t="n">
+        <v>221.5602375558782</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45361.99999999999</v>
+      </c>
+      <c r="B30" t="n">
+        <v>95</v>
+      </c>
+      <c r="C30" t="n">
+        <v>-39.80401371033671</v>
+      </c>
+      <c r="D30" t="n">
+        <v>236.9285510343268</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45375.99999999999</v>
+      </c>
+      <c r="B31" t="n">
+        <v>98</v>
+      </c>
+      <c r="C31" t="n">
+        <v>-41.09485705543347</v>
+      </c>
+      <c r="D31" t="n">
+        <v>234.8824355415596</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>45389.99999999999</v>
+      </c>
+      <c r="B32" t="n">
+        <v>102</v>
+      </c>
+      <c r="C32" t="n">
+        <v>-31.99302453405263</v>
+      </c>
+      <c r="D32" t="n">
+        <v>229.8099407927404</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>45396.99999999999</v>
+      </c>
+      <c r="B33" t="n">
+        <v>104</v>
+      </c>
+      <c r="C33" t="n">
+        <v>-27.10161296212845</v>
+      </c>
+      <c r="D33" t="n">
+        <v>246.489202986933</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>45403.99999999999</v>
+      </c>
+      <c r="B34" t="n">
+        <v>106</v>
+      </c>
+      <c r="C34" t="n">
+        <v>-20.73624087408005</v>
+      </c>
+      <c r="D34" t="n">
+        <v>242.7621144978532</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>45410.99999999999</v>
+      </c>
+      <c r="B35" t="n">
+        <v>108</v>
+      </c>
+      <c r="C35" t="n">
+        <v>-17.7232786237657</v>
+      </c>
+      <c r="D35" t="n">
+        <v>246.6225742279252</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>45417.99999999999</v>
+      </c>
+      <c r="B36" t="n">
+        <v>110</v>
+      </c>
+      <c r="C36" t="n">
+        <v>-22.22966800920741</v>
+      </c>
+      <c r="D36" t="n">
+        <v>245.9437121428142</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>45424.99999999999</v>
+      </c>
+      <c r="B37" t="n">
+        <v>112</v>
+      </c>
+      <c r="C37" t="n">
+        <v>-18.64662665989543</v>
+      </c>
+      <c r="D37" t="n">
+        <v>238.0860878488791</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>45431.99999999999</v>
+      </c>
+      <c r="B38" t="n">
+        <v>114</v>
+      </c>
+      <c r="C38" t="n">
+        <v>-11.23642282271392</v>
+      </c>
+      <c r="D38" t="n">
+        <v>246.9658978350363</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>45445.99999999999</v>
+      </c>
+      <c r="B39" t="n">
+        <v>117</v>
+      </c>
+      <c r="C39" t="n">
+        <v>-15.02153811487949</v>
+      </c>
+      <c r="D39" t="n">
+        <v>245.5856367129069</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>45452.99999999999</v>
+      </c>
+      <c r="B40" t="n">
+        <v>119</v>
+      </c>
+      <c r="C40" t="n">
+        <v>-12.21787292261642</v>
+      </c>
+      <c r="D40" t="n">
+        <v>249.9292583843132</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>45459.99999999999</v>
+      </c>
+      <c r="B41" t="n">
+        <v>121</v>
+      </c>
+      <c r="C41" t="n">
+        <v>-7.104737039449127</v>
+      </c>
+      <c r="D41" t="n">
+        <v>255.1174376372996</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>45466.99999999999</v>
+      </c>
+      <c r="B42" t="n">
+        <v>123</v>
+      </c>
+      <c r="C42" t="n">
+        <v>-6.087256414101694</v>
+      </c>
+      <c r="D42" t="n">
+        <v>247.3977915280856</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>45529.99999999999</v>
+      </c>
+      <c r="B43" t="n">
+        <v>140</v>
+      </c>
+      <c r="C43" t="n">
+        <v>2.850233442514471</v>
+      </c>
+      <c r="D43" t="n">
+        <v>269.2463076585706</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>45550.99999999999</v>
+      </c>
+      <c r="B44" t="n">
+        <v>146</v>
+      </c>
+      <c r="C44" t="n">
+        <v>1.916966270336593</v>
+      </c>
+      <c r="D44" t="n">
+        <v>274.6301359996179</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>45557.99999999999</v>
+      </c>
+      <c r="B45" t="n">
+        <v>148</v>
+      </c>
+      <c r="C45" t="n">
+        <v>8.025701135270504</v>
+      </c>
+      <c r="D45" t="n">
+        <v>281.3628061409869</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>45578.99999999999</v>
+      </c>
+      <c r="B46" t="n">
+        <v>153</v>
+      </c>
+      <c r="C46" t="n">
+        <v>20.66384064172419</v>
+      </c>
+      <c r="D46" t="n">
+        <v>287.7027005180479</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45634.99999999999</v>
+      </c>
+      <c r="B47" t="n">
+        <v>168</v>
+      </c>
+      <c r="C47" t="n">
+        <v>38.35765317951277</v>
+      </c>
+      <c r="D47" t="n">
+        <v>305.8939042052416</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>45641.99999999999</v>
+      </c>
+      <c r="B48" t="n">
+        <v>170</v>
+      </c>
+      <c r="C48" t="n">
+        <v>31.93346196076326</v>
+      </c>
+      <c r="D48" t="n">
+        <v>304.8733155627628</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>45648.99999999999</v>
+      </c>
+      <c r="B49" t="n">
+        <v>172</v>
+      </c>
+      <c r="C49" t="n">
+        <v>39.16848477728107</v>
+      </c>
+      <c r="D49" t="n">
+        <v>311.9277994944585</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>45655.99999999999</v>
+      </c>
+      <c r="B50" t="n">
+        <v>174</v>
+      </c>
+      <c r="C50" t="n">
+        <v>33.05881834740382</v>
+      </c>
+      <c r="D50" t="n">
+        <v>311.7702955671117</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>45662.99999999999</v>
+      </c>
+      <c r="B51" t="n">
+        <v>176</v>
+      </c>
+      <c r="C51" t="n">
+        <v>54.95784802060108</v>
+      </c>
+      <c r="D51" t="n">
+        <v>312.5571812783019</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>45669.99999999999</v>
+      </c>
+      <c r="B52" t="n">
+        <v>178</v>
+      </c>
+      <c r="C52" t="n">
+        <v>41.32583131534481</v>
+      </c>
+      <c r="D52" t="n">
+        <v>310.8537253588199</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>45676.99999999999</v>
+      </c>
+      <c r="B53" t="n">
+        <v>180</v>
+      </c>
+      <c r="C53" t="n">
+        <v>51.79315072336006</v>
+      </c>
+      <c r="D53" t="n">
+        <v>306.6860851068677</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>45683.99999999999</v>
+      </c>
+      <c r="B54" t="n">
+        <v>182</v>
+      </c>
+      <c r="C54" t="n">
+        <v>38.55281711158099</v>
+      </c>
+      <c r="D54" t="n">
+        <v>316.5492513797394</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>45690.99999999999</v>
+      </c>
+      <c r="B55" t="n">
+        <v>184</v>
+      </c>
+      <c r="C55" t="n">
+        <v>53.78608290069745</v>
+      </c>
+      <c r="D55" t="n">
+        <v>328.5522886837455</v>
       </c>
     </row>
   </sheetData>

--- a/po_analysis_by_asin/B0BTJYYTGM_po_data.xlsx
+++ b/po_analysis_by_asin/B0BTJYYTGM_po_data.xlsx
@@ -1021,7 +1021,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D55"/>
+  <dimension ref="A1:B55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1040,16 +1040,6 @@
           <t>PO_Forecast</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_lower</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_upper</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -1058,12 +1048,6 @@
       <c r="B2" t="n">
         <v>0</v>
       </c>
-      <c r="C2" t="n">
-        <v>-143.685820292379</v>
-      </c>
-      <c r="D2" t="n">
-        <v>121.1626061997484</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -1072,12 +1056,6 @@
       <c r="B3" t="n">
         <v>0</v>
       </c>
-      <c r="C3" t="n">
-        <v>-137.9306810165527</v>
-      </c>
-      <c r="D3" t="n">
-        <v>130.5241127184159</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -1086,12 +1064,6 @@
       <c r="B4" t="n">
         <v>0</v>
       </c>
-      <c r="C4" t="n">
-        <v>-136.3489969243094</v>
-      </c>
-      <c r="D4" t="n">
-        <v>133.3306754166084</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -1100,12 +1072,6 @@
       <c r="B5" t="n">
         <v>0</v>
       </c>
-      <c r="C5" t="n">
-        <v>-136.8218028907774</v>
-      </c>
-      <c r="D5" t="n">
-        <v>135.6977067496454</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -1114,12 +1080,6 @@
       <c r="B6" t="n">
         <v>2</v>
       </c>
-      <c r="C6" t="n">
-        <v>-128.917116201413</v>
-      </c>
-      <c r="D6" t="n">
-        <v>126.9949201635883</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -1128,12 +1088,6 @@
       <c r="B7" t="n">
         <v>8</v>
       </c>
-      <c r="C7" t="n">
-        <v>-131.3881636974626</v>
-      </c>
-      <c r="D7" t="n">
-        <v>136.443127352557</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -1142,12 +1096,6 @@
       <c r="B8" t="n">
         <v>13</v>
       </c>
-      <c r="C8" t="n">
-        <v>-121.0279046608314</v>
-      </c>
-      <c r="D8" t="n">
-        <v>157.1167921911986</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -1156,12 +1104,6 @@
       <c r="B9" t="n">
         <v>23</v>
       </c>
-      <c r="C9" t="n">
-        <v>-106.077179365514</v>
-      </c>
-      <c r="D9" t="n">
-        <v>161.8175301085614</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -1170,12 +1112,6 @@
       <c r="B10" t="n">
         <v>25</v>
       </c>
-      <c r="C10" t="n">
-        <v>-109.5609296042904</v>
-      </c>
-      <c r="D10" t="n">
-        <v>161.5315769915752</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -1184,12 +1120,6 @@
       <c r="B11" t="n">
         <v>26</v>
       </c>
-      <c r="C11" t="n">
-        <v>-113.820410159511</v>
-      </c>
-      <c r="D11" t="n">
-        <v>156.1301690654763</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -1198,12 +1128,6 @@
       <c r="B12" t="n">
         <v>28</v>
       </c>
-      <c r="C12" t="n">
-        <v>-98.79582410551234</v>
-      </c>
-      <c r="D12" t="n">
-        <v>162.1062760597801</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -1212,12 +1136,6 @@
       <c r="B13" t="n">
         <v>30</v>
       </c>
-      <c r="C13" t="n">
-        <v>-104.9496178479217</v>
-      </c>
-      <c r="D13" t="n">
-        <v>163.3519774908711</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -1226,12 +1144,6 @@
       <c r="B14" t="n">
         <v>32</v>
       </c>
-      <c r="C14" t="n">
-        <v>-101.7434362267775</v>
-      </c>
-      <c r="D14" t="n">
-        <v>173.5535083211913</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -1240,12 +1152,6 @@
       <c r="B15" t="n">
         <v>38</v>
       </c>
-      <c r="C15" t="n">
-        <v>-101.4850385788039</v>
-      </c>
-      <c r="D15" t="n">
-        <v>166.9881703798819</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -1254,12 +1160,6 @@
       <c r="B16" t="n">
         <v>42</v>
       </c>
-      <c r="C16" t="n">
-        <v>-85.89475513126565</v>
-      </c>
-      <c r="D16" t="n">
-        <v>172.0574031308441</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -1268,12 +1168,6 @@
       <c r="B17" t="n">
         <v>44</v>
       </c>
-      <c r="C17" t="n">
-        <v>-91.57492263539848</v>
-      </c>
-      <c r="D17" t="n">
-        <v>175.7849583992979</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -1282,12 +1176,6 @@
       <c r="B18" t="n">
         <v>45</v>
       </c>
-      <c r="C18" t="n">
-        <v>-87.52453373741538</v>
-      </c>
-      <c r="D18" t="n">
-        <v>180.0522339875342</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -1296,12 +1184,6 @@
       <c r="B19" t="n">
         <v>47</v>
       </c>
-      <c r="C19" t="n">
-        <v>-91.58991660830836</v>
-      </c>
-      <c r="D19" t="n">
-        <v>185.3983346923988</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -1310,12 +1192,6 @@
       <c r="B20" t="n">
         <v>49</v>
       </c>
-      <c r="C20" t="n">
-        <v>-80.40862015471629</v>
-      </c>
-      <c r="D20" t="n">
-        <v>182.1141546436436</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -1324,12 +1200,6 @@
       <c r="B21" t="n">
         <v>51</v>
       </c>
-      <c r="C21" t="n">
-        <v>-87.91822988138627</v>
-      </c>
-      <c r="D21" t="n">
-        <v>190.0231849344646</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -1338,12 +1208,6 @@
       <c r="B22" t="n">
         <v>53</v>
       </c>
-      <c r="C22" t="n">
-        <v>-81.78078797296868</v>
-      </c>
-      <c r="D22" t="n">
-        <v>184.8073213347397</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -1352,12 +1216,6 @@
       <c r="B23" t="n">
         <v>55</v>
       </c>
-      <c r="C23" t="n">
-        <v>-74.88615376495331</v>
-      </c>
-      <c r="D23" t="n">
-        <v>194.7727637248639</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -1366,12 +1224,6 @@
       <c r="B24" t="n">
         <v>64</v>
       </c>
-      <c r="C24" t="n">
-        <v>-69.59977243359963</v>
-      </c>
-      <c r="D24" t="n">
-        <v>202.7584907389961</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
@@ -1380,12 +1232,6 @@
       <c r="B25" t="n">
         <v>66</v>
       </c>
-      <c r="C25" t="n">
-        <v>-76.53681933476746</v>
-      </c>
-      <c r="D25" t="n">
-        <v>202.6720561163611</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
@@ -1394,12 +1240,6 @@
       <c r="B26" t="n">
         <v>70</v>
       </c>
-      <c r="C26" t="n">
-        <v>-67.00529033496838</v>
-      </c>
-      <c r="D26" t="n">
-        <v>200.2556380002407</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
@@ -1408,12 +1248,6 @@
       <c r="B27" t="n">
         <v>72</v>
       </c>
-      <c r="C27" t="n">
-        <v>-54.52487699742729</v>
-      </c>
-      <c r="D27" t="n">
-        <v>201.385813305074</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
@@ -1422,12 +1256,6 @@
       <c r="B28" t="n">
         <v>78</v>
       </c>
-      <c r="C28" t="n">
-        <v>-52.29247618354722</v>
-      </c>
-      <c r="D28" t="n">
-        <v>215.9429448965279</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
@@ -1436,12 +1264,6 @@
       <c r="B29" t="n">
         <v>79</v>
       </c>
-      <c r="C29" t="n">
-        <v>-56.28659533886998</v>
-      </c>
-      <c r="D29" t="n">
-        <v>221.5602375558782</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
@@ -1450,12 +1272,6 @@
       <c r="B30" t="n">
         <v>95</v>
       </c>
-      <c r="C30" t="n">
-        <v>-39.80401371033671</v>
-      </c>
-      <c r="D30" t="n">
-        <v>236.9285510343268</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
@@ -1464,12 +1280,6 @@
       <c r="B31" t="n">
         <v>98</v>
       </c>
-      <c r="C31" t="n">
-        <v>-41.09485705543347</v>
-      </c>
-      <c r="D31" t="n">
-        <v>234.8824355415596</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
@@ -1478,12 +1288,6 @@
       <c r="B32" t="n">
         <v>102</v>
       </c>
-      <c r="C32" t="n">
-        <v>-31.99302453405263</v>
-      </c>
-      <c r="D32" t="n">
-        <v>229.8099407927404</v>
-      </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
@@ -1492,12 +1296,6 @@
       <c r="B33" t="n">
         <v>104</v>
       </c>
-      <c r="C33" t="n">
-        <v>-27.10161296212845</v>
-      </c>
-      <c r="D33" t="n">
-        <v>246.489202986933</v>
-      </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
@@ -1506,12 +1304,6 @@
       <c r="B34" t="n">
         <v>106</v>
       </c>
-      <c r="C34" t="n">
-        <v>-20.73624087408005</v>
-      </c>
-      <c r="D34" t="n">
-        <v>242.7621144978532</v>
-      </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
@@ -1520,12 +1312,6 @@
       <c r="B35" t="n">
         <v>108</v>
       </c>
-      <c r="C35" t="n">
-        <v>-17.7232786237657</v>
-      </c>
-      <c r="D35" t="n">
-        <v>246.6225742279252</v>
-      </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
@@ -1534,12 +1320,6 @@
       <c r="B36" t="n">
         <v>110</v>
       </c>
-      <c r="C36" t="n">
-        <v>-22.22966800920741</v>
-      </c>
-      <c r="D36" t="n">
-        <v>245.9437121428142</v>
-      </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
@@ -1548,12 +1328,6 @@
       <c r="B37" t="n">
         <v>112</v>
       </c>
-      <c r="C37" t="n">
-        <v>-18.64662665989543</v>
-      </c>
-      <c r="D37" t="n">
-        <v>238.0860878488791</v>
-      </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
@@ -1562,12 +1336,6 @@
       <c r="B38" t="n">
         <v>114</v>
       </c>
-      <c r="C38" t="n">
-        <v>-11.23642282271392</v>
-      </c>
-      <c r="D38" t="n">
-        <v>246.9658978350363</v>
-      </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
@@ -1576,12 +1344,6 @@
       <c r="B39" t="n">
         <v>117</v>
       </c>
-      <c r="C39" t="n">
-        <v>-15.02153811487949</v>
-      </c>
-      <c r="D39" t="n">
-        <v>245.5856367129069</v>
-      </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
@@ -1590,12 +1352,6 @@
       <c r="B40" t="n">
         <v>119</v>
       </c>
-      <c r="C40" t="n">
-        <v>-12.21787292261642</v>
-      </c>
-      <c r="D40" t="n">
-        <v>249.9292583843132</v>
-      </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
@@ -1604,12 +1360,6 @@
       <c r="B41" t="n">
         <v>121</v>
       </c>
-      <c r="C41" t="n">
-        <v>-7.104737039449127</v>
-      </c>
-      <c r="D41" t="n">
-        <v>255.1174376372996</v>
-      </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
@@ -1618,12 +1368,6 @@
       <c r="B42" t="n">
         <v>123</v>
       </c>
-      <c r="C42" t="n">
-        <v>-6.087256414101694</v>
-      </c>
-      <c r="D42" t="n">
-        <v>247.3977915280856</v>
-      </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
@@ -1632,12 +1376,6 @@
       <c r="B43" t="n">
         <v>140</v>
       </c>
-      <c r="C43" t="n">
-        <v>2.850233442514471</v>
-      </c>
-      <c r="D43" t="n">
-        <v>269.2463076585706</v>
-      </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
@@ -1646,12 +1384,6 @@
       <c r="B44" t="n">
         <v>146</v>
       </c>
-      <c r="C44" t="n">
-        <v>1.916966270336593</v>
-      </c>
-      <c r="D44" t="n">
-        <v>274.6301359996179</v>
-      </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
@@ -1660,12 +1392,6 @@
       <c r="B45" t="n">
         <v>148</v>
       </c>
-      <c r="C45" t="n">
-        <v>8.025701135270504</v>
-      </c>
-      <c r="D45" t="n">
-        <v>281.3628061409869</v>
-      </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
@@ -1674,12 +1400,6 @@
       <c r="B46" t="n">
         <v>153</v>
       </c>
-      <c r="C46" t="n">
-        <v>20.66384064172419</v>
-      </c>
-      <c r="D46" t="n">
-        <v>287.7027005180479</v>
-      </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
@@ -1688,12 +1408,6 @@
       <c r="B47" t="n">
         <v>168</v>
       </c>
-      <c r="C47" t="n">
-        <v>38.35765317951277</v>
-      </c>
-      <c r="D47" t="n">
-        <v>305.8939042052416</v>
-      </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
@@ -1702,12 +1416,6 @@
       <c r="B48" t="n">
         <v>170</v>
       </c>
-      <c r="C48" t="n">
-        <v>31.93346196076326</v>
-      </c>
-      <c r="D48" t="n">
-        <v>304.8733155627628</v>
-      </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
@@ -1716,12 +1424,6 @@
       <c r="B49" t="n">
         <v>172</v>
       </c>
-      <c r="C49" t="n">
-        <v>39.16848477728107</v>
-      </c>
-      <c r="D49" t="n">
-        <v>311.9277994944585</v>
-      </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
@@ -1730,12 +1432,6 @@
       <c r="B50" t="n">
         <v>174</v>
       </c>
-      <c r="C50" t="n">
-        <v>33.05881834740382</v>
-      </c>
-      <c r="D50" t="n">
-        <v>311.7702955671117</v>
-      </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
@@ -1744,12 +1440,6 @@
       <c r="B51" t="n">
         <v>176</v>
       </c>
-      <c r="C51" t="n">
-        <v>54.95784802060108</v>
-      </c>
-      <c r="D51" t="n">
-        <v>312.5571812783019</v>
-      </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
@@ -1758,12 +1448,6 @@
       <c r="B52" t="n">
         <v>178</v>
       </c>
-      <c r="C52" t="n">
-        <v>41.32583131534481</v>
-      </c>
-      <c r="D52" t="n">
-        <v>310.8537253588199</v>
-      </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
@@ -1772,12 +1456,6 @@
       <c r="B53" t="n">
         <v>180</v>
       </c>
-      <c r="C53" t="n">
-        <v>51.79315072336006</v>
-      </c>
-      <c r="D53" t="n">
-        <v>306.6860851068677</v>
-      </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
@@ -1786,12 +1464,6 @@
       <c r="B54" t="n">
         <v>182</v>
       </c>
-      <c r="C54" t="n">
-        <v>38.55281711158099</v>
-      </c>
-      <c r="D54" t="n">
-        <v>316.5492513797394</v>
-      </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
@@ -1799,12 +1471,6 @@
       </c>
       <c r="B55" t="n">
         <v>184</v>
-      </c>
-      <c r="C55" t="n">
-        <v>53.78608290069745</v>
-      </c>
-      <c r="D55" t="n">
-        <v>328.5522886837455</v>
       </c>
     </row>
   </sheetData>
